--- a/Data/Output/companiiGraph.xlsx
+++ b/Data/Output/companiiGraph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreiKrausz\Documents\GitHub\POC5---Orange\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849F1BDB-E145-4FCB-B9A0-F5D4F4401730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410559AB-0FFE-4D08-B1B4-706501D5B3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="792" yWindow="3168" windowWidth="17280" windowHeight="8976" firstSheet="42" activeTab="47" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-875F-4F39-BB12-24C627324E68}"/>
+              <c16:uniqueId val="{00000001-9EDA-4A49-A162-E4EE8BD29066}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -508,11 +508,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1772055744"/>
-        <c:axId val="1772056992"/>
+        <c:axId val="4054352"/>
+        <c:axId val="4055600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1772055744"/>
+        <c:axId val="4054352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,12 +540,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1772056992"/>
+        <c:crossAx val="4055600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1772056992"/>
+        <c:axId val="4055600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,7 +574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1772055744"/>
+        <c:crossAx val="4054352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -875,7 +875,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D348-4B22-BBD0-45D84B0C8B16}"/>
+              <c16:uniqueId val="{00000001-34CD-4863-AA91-CC368CB89B37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -887,11 +887,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="761357615"/>
-        <c:axId val="761360111"/>
+        <c:axId val="1778441408"/>
+        <c:axId val="1778443904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="761357615"/>
+        <c:axId val="1778441408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,12 +919,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="761360111"/>
+        <c:crossAx val="1778443904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="761360111"/>
+        <c:axId val="1778443904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="761357615"/>
+        <c:crossAx val="1778441408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1254,7 +1254,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-59EA-4E83-92DB-ECABA094C914}"/>
+              <c16:uniqueId val="{00000001-CC93-4F26-A638-31118C74A5F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1266,11 +1266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1507763168"/>
-        <c:axId val="1507758176"/>
+        <c:axId val="1713057567"/>
+        <c:axId val="1713057983"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1507763168"/>
+        <c:axId val="1713057567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,12 +1298,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1507758176"/>
+        <c:crossAx val="1713057983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1507758176"/>
+        <c:axId val="1713057983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1507763168"/>
+        <c:crossAx val="1713057567"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1633,7 +1633,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2F00-43FE-934A-9F878033C4B6}"/>
+              <c16:uniqueId val="{00000001-780E-4086-8FDE-C370134B44D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1645,11 +1645,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="495688800"/>
-        <c:axId val="495689632"/>
+        <c:axId val="733838672"/>
+        <c:axId val="733839504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="495688800"/>
+        <c:axId val="733838672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,12 +1677,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495689632"/>
+        <c:crossAx val="733839504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="495689632"/>
+        <c:axId val="733839504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495688800"/>
+        <c:crossAx val="733838672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2012,7 +2012,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A6E7-4D04-92C4-03DEA34E8BB0}"/>
+              <c16:uniqueId val="{00000001-C582-4870-A595-C56406770A0B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2024,11 +2024,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429468656"/>
-        <c:axId val="429467824"/>
+        <c:axId val="814927264"/>
+        <c:axId val="814927680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429468656"/>
+        <c:axId val="814927264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2056,12 +2056,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429467824"/>
+        <c:crossAx val="814927680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429467824"/>
+        <c:axId val="814927680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,7 +2090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429468656"/>
+        <c:crossAx val="814927264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2391,7 +2391,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6CE5-43EC-8144-FB7DEF79998C}"/>
+              <c16:uniqueId val="{00000001-47E1-44C8-81FD-0B94A5E4D70B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2403,11 +2403,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="501377936"/>
-        <c:axId val="501379600"/>
+        <c:axId val="812451392"/>
+        <c:axId val="812451808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="501377936"/>
+        <c:axId val="812451392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2435,12 +2435,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501379600"/>
+        <c:crossAx val="812451808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501379600"/>
+        <c:axId val="812451808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,7 +2469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501377936"/>
+        <c:crossAx val="812451392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2770,7 +2770,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3389-4460-8712-972E4576D57E}"/>
+              <c16:uniqueId val="{00000001-5F7A-4005-B212-C848D2EF8FE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2782,11 +2782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="426867280"/>
-        <c:axId val="426867696"/>
+        <c:axId val="1085922559"/>
+        <c:axId val="1085917567"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="426867280"/>
+        <c:axId val="1085922559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2814,12 +2814,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426867696"/>
+        <c:crossAx val="1085917567"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="426867696"/>
+        <c:axId val="1085917567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2848,7 +2848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426867280"/>
+        <c:crossAx val="1085922559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3149,7 +3149,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-23DF-44BC-B6EF-B15074FFB21B}"/>
+              <c16:uniqueId val="{00000001-8493-46DB-91C6-251C0E30DA90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3161,11 +3161,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428099952"/>
-        <c:axId val="428101200"/>
+        <c:axId val="712042095"/>
+        <c:axId val="712042511"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428099952"/>
+        <c:axId val="712042095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3193,12 +3193,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428101200"/>
+        <c:crossAx val="712042511"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428101200"/>
+        <c:axId val="712042511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3227,7 +3227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428099952"/>
+        <c:crossAx val="712042095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3528,7 +3528,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B7AC-466A-B2B6-D03DC3D6B26F}"/>
+              <c16:uniqueId val="{00000001-F552-400D-99FF-052FB10D5265}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3540,11 +3540,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="828313567"/>
-        <c:axId val="828306911"/>
+        <c:axId val="338256703"/>
+        <c:axId val="338257951"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="828313567"/>
+        <c:axId val="338256703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3572,12 +3572,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="828306911"/>
+        <c:crossAx val="338257951"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="828306911"/>
+        <c:axId val="338257951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3606,7 +3606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="828313567"/>
+        <c:crossAx val="338256703"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3907,7 +3907,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DDF8-42AF-AAE6-6399FD7C0496}"/>
+              <c16:uniqueId val="{00000001-35D2-4406-8237-A68AC19C54D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3919,11 +3919,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="605332399"/>
-        <c:axId val="605332815"/>
+        <c:axId val="347022623"/>
+        <c:axId val="347016799"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="605332399"/>
+        <c:axId val="347022623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3951,12 +3951,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="605332815"/>
+        <c:crossAx val="347016799"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="605332815"/>
+        <c:axId val="347016799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3985,7 +3985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="605332399"/>
+        <c:crossAx val="347022623"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4286,7 +4286,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DA48-4F62-B1AC-CE9A9EB652A7}"/>
+              <c16:uniqueId val="{00000001-FC04-4271-99FE-53269878823B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4298,11 +4298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2124833167"/>
-        <c:axId val="2124838991"/>
+        <c:axId val="319362960"/>
+        <c:axId val="319364624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2124833167"/>
+        <c:axId val="319362960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4330,12 +4330,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124838991"/>
+        <c:crossAx val="319364624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2124838991"/>
+        <c:axId val="319364624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4364,7 +4364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124833167"/>
+        <c:crossAx val="319362960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4665,7 +4665,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7977-46B7-8C57-64B347BC397A}"/>
+              <c16:uniqueId val="{00000001-4361-4937-8114-363E560C6B79}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4677,11 +4677,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1777480464"/>
-        <c:axId val="1777480880"/>
+        <c:axId val="3797360"/>
+        <c:axId val="3797776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1777480464"/>
+        <c:axId val="3797360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4709,12 +4709,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1777480880"/>
+        <c:crossAx val="3797776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1777480880"/>
+        <c:axId val="3797776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4743,7 +4743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1777480464"/>
+        <c:crossAx val="3797360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5044,7 +5044,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B742-4428-8C04-052BFEF5074B}"/>
+              <c16:uniqueId val="{00000001-C141-4CE0-A030-60A9107F5A23}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5056,11 +5056,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2053152975"/>
-        <c:axId val="2053152143"/>
+        <c:axId val="746165376"/>
+        <c:axId val="319364624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2053152975"/>
+        <c:axId val="746165376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5088,12 +5088,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053152143"/>
+        <c:crossAx val="319364624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2053152143"/>
+        <c:axId val="319364624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5122,7 +5122,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053152975"/>
+        <c:crossAx val="746165376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5423,7 +5423,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1915-4BC4-A5A7-B8B81E6E339E}"/>
+              <c16:uniqueId val="{00000001-CBC8-40D7-A463-8400C2DCBEAF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5435,11 +5435,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2100205391"/>
-        <c:axId val="2100204143"/>
+        <c:axId val="613162608"/>
+        <c:axId val="613167184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2100205391"/>
+        <c:axId val="613162608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5467,12 +5467,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100204143"/>
+        <c:crossAx val="613167184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2100204143"/>
+        <c:axId val="613167184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5501,7 +5501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100205391"/>
+        <c:crossAx val="613162608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5802,7 +5802,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B3D5-40D9-8920-071663052CF6}"/>
+              <c16:uniqueId val="{00000001-AE17-43A5-96F9-81DC0454F1D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5814,11 +5814,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2078287840"/>
-        <c:axId val="2078500736"/>
+        <c:axId val="1819447968"/>
+        <c:axId val="1891688240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2078287840"/>
+        <c:axId val="1819447968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5846,12 +5846,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078500736"/>
+        <c:crossAx val="1891688240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2078500736"/>
+        <c:axId val="1891688240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5880,7 +5880,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078287840"/>
+        <c:crossAx val="1819447968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6181,7 +6181,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0F01-462A-9745-C87A697F4DF2}"/>
+              <c16:uniqueId val="{00000001-EEF4-48F7-A9D8-D900068B7B9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6193,11 +6193,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2030911279"/>
-        <c:axId val="2030918351"/>
+        <c:axId val="966670447"/>
+        <c:axId val="966669199"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2030911279"/>
+        <c:axId val="966670447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6225,12 +6225,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2030918351"/>
+        <c:crossAx val="966669199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2030918351"/>
+        <c:axId val="966669199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6259,7 +6259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2030911279"/>
+        <c:crossAx val="966670447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6560,7 +6560,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A0E1-4A15-824F-4445DF6534A0}"/>
+              <c16:uniqueId val="{00000001-C93F-4DD2-97A9-76B19C2DE9FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6572,11 +6572,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1693734543"/>
-        <c:axId val="1693722479"/>
+        <c:axId val="2058001104"/>
+        <c:axId val="1678583536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1693734543"/>
+        <c:axId val="2058001104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6604,12 +6604,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1693722479"/>
+        <c:crossAx val="1678583536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1693722479"/>
+        <c:axId val="1678583536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6638,7 +6638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1693734543"/>
+        <c:crossAx val="2058001104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6939,7 +6939,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-948F-4A4C-ABDC-82B0EEB7511E}"/>
+              <c16:uniqueId val="{00000001-72C1-4E05-9630-C0FAA7132D17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6951,11 +6951,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1497908432"/>
-        <c:axId val="1518841616"/>
+        <c:axId val="704441984"/>
+        <c:axId val="704443232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1497908432"/>
+        <c:axId val="704441984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6983,12 +6983,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1518841616"/>
+        <c:crossAx val="704443232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1518841616"/>
+        <c:axId val="704443232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7017,7 +7017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1497908432"/>
+        <c:crossAx val="704441984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7318,7 +7318,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-448F-4209-8718-748109518AF3}"/>
+              <c16:uniqueId val="{00000001-B59D-4AB7-8B79-7D322B95D7F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7330,11 +7330,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083234607"/>
-        <c:axId val="2083235023"/>
+        <c:axId val="432088559"/>
+        <c:axId val="432087727"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083234607"/>
+        <c:axId val="432088559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7362,12 +7362,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083235023"/>
+        <c:crossAx val="432087727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083235023"/>
+        <c:axId val="432087727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7396,7 +7396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083234607"/>
+        <c:crossAx val="432088559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7697,7 +7697,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3990-4AD8-9289-780850B7C3A6}"/>
+              <c16:uniqueId val="{00000001-2F1E-4FE0-8B4D-F6A4D680DFDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7709,11 +7709,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1091745504"/>
-        <c:axId val="1091747584"/>
+        <c:axId val="675091327"/>
+        <c:axId val="675088831"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1091745504"/>
+        <c:axId val="675091327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7741,12 +7741,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1091747584"/>
+        <c:crossAx val="675088831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1091747584"/>
+        <c:axId val="675088831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7775,7 +7775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1091745504"/>
+        <c:crossAx val="675091327"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8076,7 +8076,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-65DD-41BB-B55D-2804154D84ED}"/>
+              <c16:uniqueId val="{00000001-C56F-4E3A-8757-3E4EC3387705}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8088,11 +8088,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="777562816"/>
-        <c:axId val="777561984"/>
+        <c:axId val="20845120"/>
+        <c:axId val="20845536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="777562816"/>
+        <c:axId val="20845120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8120,12 +8120,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="777561984"/>
+        <c:crossAx val="20845536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="777561984"/>
+        <c:axId val="20845536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8154,7 +8154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="777562816"/>
+        <c:crossAx val="20845120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8455,7 +8455,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EF67-40CC-9F77-E2248082A82C}"/>
+              <c16:uniqueId val="{00000001-06AA-4852-ACB2-64191C4ABC0B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8467,11 +8467,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="606148992"/>
-        <c:axId val="606149408"/>
+        <c:axId val="1399919904"/>
+        <c:axId val="1399924064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="606148992"/>
+        <c:axId val="1399919904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8499,12 +8499,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="606149408"/>
+        <c:crossAx val="1399924064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="606149408"/>
+        <c:axId val="1399924064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8533,7 +8533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="606148992"/>
+        <c:crossAx val="1399919904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8834,7 +8834,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4178-4D09-B950-272127B9C5AC}"/>
+              <c16:uniqueId val="{00000001-8BD1-4C94-BEB7-F9DAA9EBD1F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8846,11 +8846,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1877518432"/>
-        <c:axId val="1877518848"/>
+        <c:axId val="2053862368"/>
+        <c:axId val="2053862784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1877518432"/>
+        <c:axId val="2053862368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8878,12 +8878,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1877518848"/>
+        <c:crossAx val="2053862784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1877518848"/>
+        <c:axId val="2053862784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8912,7 +8912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1877518432"/>
+        <c:crossAx val="2053862368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9213,7 +9213,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F6D0-45D6-B29B-947A039E7D83}"/>
+              <c16:uniqueId val="{00000001-83D6-46F5-B3D5-1E69B7BAC5EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9225,11 +9225,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="509518128"/>
-        <c:axId val="509517296"/>
+        <c:axId val="561672736"/>
+        <c:axId val="561671488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="509518128"/>
+        <c:axId val="561672736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9257,12 +9257,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509517296"/>
+        <c:crossAx val="561671488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="509517296"/>
+        <c:axId val="561671488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9291,7 +9291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509518128"/>
+        <c:crossAx val="561672736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9592,7 +9592,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E31E-4FFF-B525-F671B365F7EB}"/>
+              <c16:uniqueId val="{00000001-747D-4E28-B073-54D3A1EF2269}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9604,11 +9604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="184231279"/>
-        <c:axId val="184232943"/>
+        <c:axId val="349034255"/>
+        <c:axId val="349019279"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184231279"/>
+        <c:axId val="349034255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9636,12 +9636,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184232943"/>
+        <c:crossAx val="349019279"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184232943"/>
+        <c:axId val="349019279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9670,7 +9670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184231279"/>
+        <c:crossAx val="349034255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9971,7 +9971,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-30FF-4F77-8B41-5F6404389090}"/>
+              <c16:uniqueId val="{00000001-D69A-4396-A1F0-5F93885F85CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9983,11 +9983,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429431663"/>
-        <c:axId val="432712495"/>
+        <c:axId val="1195024975"/>
+        <c:axId val="1195025391"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429431663"/>
+        <c:axId val="1195024975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10015,12 +10015,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432712495"/>
+        <c:crossAx val="1195025391"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432712495"/>
+        <c:axId val="1195025391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10049,7 +10049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429431663"/>
+        <c:crossAx val="1195024975"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10350,7 +10350,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC07-4F8A-9B39-D4BC1F0D2581}"/>
+              <c16:uniqueId val="{00000001-735B-4DB1-B316-F4158C99F289}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10362,11 +10362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1002949360"/>
-        <c:axId val="1002950608"/>
+        <c:axId val="1045130800"/>
+        <c:axId val="1045131632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1002949360"/>
+        <c:axId val="1045130800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10394,12 +10394,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1002950608"/>
+        <c:crossAx val="1045131632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1002950608"/>
+        <c:axId val="1045131632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10428,7 +10428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1002949360"/>
+        <c:crossAx val="1045130800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10729,7 +10729,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-28BE-4DF6-A513-1B8378011276}"/>
+              <c16:uniqueId val="{00000001-124A-4A2E-832B-A0AF6795E448}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10741,11 +10741,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144680928"/>
-        <c:axId val="144681344"/>
+        <c:axId val="100999200"/>
+        <c:axId val="101000032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144680928"/>
+        <c:axId val="100999200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10773,12 +10773,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144681344"/>
+        <c:crossAx val="101000032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144681344"/>
+        <c:axId val="101000032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10807,7 +10807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144680928"/>
+        <c:crossAx val="100999200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11108,7 +11108,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E906-4402-9CE1-088BB8D18E09}"/>
+              <c16:uniqueId val="{00000001-1D93-4CCC-B46D-24E03AE5E150}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11120,11 +11120,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="673366351"/>
-        <c:axId val="673366767"/>
+        <c:axId val="1190642112"/>
+        <c:axId val="1190641280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="673366351"/>
+        <c:axId val="1190642112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11152,12 +11152,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673366767"/>
+        <c:crossAx val="1190641280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="673366767"/>
+        <c:axId val="1190641280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11186,7 +11186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673366351"/>
+        <c:crossAx val="1190642112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11487,7 +11487,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5EC8-4ACF-96E8-D86CB63DFD27}"/>
+              <c16:uniqueId val="{00000001-109E-4402-84DE-AE0D200BC223}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11499,11 +11499,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98491376"/>
-        <c:axId val="98490128"/>
+        <c:axId val="981076751"/>
+        <c:axId val="981079663"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98491376"/>
+        <c:axId val="981076751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11531,12 +11531,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98490128"/>
+        <c:crossAx val="981079663"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98490128"/>
+        <c:axId val="981079663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11565,7 +11565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98491376"/>
+        <c:crossAx val="981076751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11866,7 +11866,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9BE7-4BD1-B2E1-366951F92006}"/>
+              <c16:uniqueId val="{00000001-0138-415F-8C6A-12AAE5CE8CC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11878,11 +11878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2132232127"/>
-        <c:axId val="2132234207"/>
+        <c:axId val="2131747743"/>
+        <c:axId val="2131747327"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2132232127"/>
+        <c:axId val="2131747743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11910,12 +11910,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132234207"/>
+        <c:crossAx val="2131747327"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132234207"/>
+        <c:axId val="2131747327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11944,7 +11944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132232127"/>
+        <c:crossAx val="2131747743"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12245,7 +12245,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-06D2-4DA3-B2AA-88DA4E61E52B}"/>
+              <c16:uniqueId val="{00000001-5557-4937-ADA0-672B55D5FB82}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12257,11 +12257,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1761006959"/>
-        <c:axId val="1761007375"/>
+        <c:axId val="1681291551"/>
+        <c:axId val="1681289887"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1761006959"/>
+        <c:axId val="1681291551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12289,12 +12289,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1761007375"/>
+        <c:crossAx val="1681289887"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1761007375"/>
+        <c:axId val="1681289887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12323,7 +12323,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1761006959"/>
+        <c:crossAx val="1681291551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12624,7 +12624,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EFB0-40D5-8076-61CFAF87239D}"/>
+              <c16:uniqueId val="{00000001-3C68-4151-BE40-DD3643CC5E71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12636,11 +12636,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1932958848"/>
-        <c:axId val="1932963424"/>
+        <c:axId val="746722831"/>
+        <c:axId val="746724495"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1932958848"/>
+        <c:axId val="746722831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12668,12 +12668,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1932963424"/>
+        <c:crossAx val="746724495"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1932963424"/>
+        <c:axId val="746724495"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12702,7 +12702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1932958848"/>
+        <c:crossAx val="746722831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13003,7 +13003,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C1C2-48C1-880E-73441A928305}"/>
+              <c16:uniqueId val="{00000001-976E-43E0-8D1D-0E1B75136DC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13015,11 +13015,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1878205840"/>
-        <c:axId val="1878206672"/>
+        <c:axId val="10898800"/>
+        <c:axId val="10897136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1878205840"/>
+        <c:axId val="10898800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13047,12 +13047,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1878206672"/>
+        <c:crossAx val="10897136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1878206672"/>
+        <c:axId val="10897136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13081,7 +13081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1878205840"/>
+        <c:crossAx val="10898800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13382,7 +13382,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5BA0-4052-85B7-52A3265BDCE5}"/>
+              <c16:uniqueId val="{00000001-34A3-40E3-B3AE-5ABB6BE73346}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13394,11 +13394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43017952"/>
-        <c:axId val="43024192"/>
+        <c:axId val="1367162064"/>
+        <c:axId val="1367167472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43017952"/>
+        <c:axId val="1367162064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13426,12 +13426,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43024192"/>
+        <c:crossAx val="1367167472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43024192"/>
+        <c:axId val="1367167472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13460,7 +13460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43017952"/>
+        <c:crossAx val="1367162064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13761,7 +13761,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7FFB-4FFC-AA49-7D3B4EA74022}"/>
+              <c16:uniqueId val="{00000001-567E-4D4E-9036-0106E452A92E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13773,11 +13773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71104336"/>
-        <c:axId val="71105168"/>
+        <c:axId val="642661871"/>
+        <c:axId val="642669359"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71104336"/>
+        <c:axId val="642661871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13805,12 +13805,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71105168"/>
+        <c:crossAx val="642669359"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71105168"/>
+        <c:axId val="642669359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13839,7 +13839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71104336"/>
+        <c:crossAx val="642661871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14140,7 +14140,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5F4F-4140-81EF-C969556A23CF}"/>
+              <c16:uniqueId val="{00000001-70D0-49F8-8F9F-029B6743FB5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14152,11 +14152,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102894079"/>
-        <c:axId val="2102896575"/>
+        <c:axId val="1795748847"/>
+        <c:axId val="1795770063"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102894079"/>
+        <c:axId val="1795748847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14184,12 +14184,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102896575"/>
+        <c:crossAx val="1795770063"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102896575"/>
+        <c:axId val="1795770063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14218,7 +14218,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102894079"/>
+        <c:crossAx val="1795748847"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14519,7 +14519,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DE85-439D-9587-BE07DE921877}"/>
+              <c16:uniqueId val="{00000001-DD86-4D00-B3EF-2B1CEF1D950A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14531,11 +14531,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="813870383"/>
-        <c:axId val="813876623"/>
+        <c:axId val="257739135"/>
+        <c:axId val="257739551"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="813870383"/>
+        <c:axId val="257739135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14563,12 +14563,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="813876623"/>
+        <c:crossAx val="257739551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="813876623"/>
+        <c:axId val="257739551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14597,7 +14597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="813870383"/>
+        <c:crossAx val="257739135"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14898,7 +14898,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-726B-42B4-8EE9-65464CD7F9D8}"/>
+              <c16:uniqueId val="{00000001-9A04-4229-969A-A529A2D9F433}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14910,11 +14910,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="771004191"/>
-        <c:axId val="771004607"/>
+        <c:axId val="891769071"/>
+        <c:axId val="891769487"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="771004191"/>
+        <c:axId val="891769071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14942,12 +14942,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="771004607"/>
+        <c:crossAx val="891769487"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="771004607"/>
+        <c:axId val="891769487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14976,7 +14976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="771004191"/>
+        <c:crossAx val="891769071"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15277,7 +15277,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-75BC-4C94-99AE-03CA12FE93BB}"/>
+              <c16:uniqueId val="{00000001-BE35-42A0-A0E9-1565A768CE36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15289,11 +15289,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="696060415"/>
-        <c:axId val="696060831"/>
+        <c:axId val="345597471"/>
+        <c:axId val="345589983"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="696060415"/>
+        <c:axId val="345597471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15321,12 +15321,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="696060831"/>
+        <c:crossAx val="345589983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="696060831"/>
+        <c:axId val="345589983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15355,7 +15355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="696060415"/>
+        <c:crossAx val="345597471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15656,7 +15656,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-66D4-4D74-9152-38535C547ED5}"/>
+              <c16:uniqueId val="{00000001-8D14-4589-8CD4-9B64D5D58156}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15668,11 +15668,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1616293407"/>
-        <c:axId val="1672282159"/>
+        <c:axId val="1279447167"/>
+        <c:axId val="1279443839"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1616293407"/>
+        <c:axId val="1279447167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15700,12 +15700,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1672282159"/>
+        <c:crossAx val="1279443839"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1672282159"/>
+        <c:axId val="1279443839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15734,7 +15734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1616293407"/>
+        <c:crossAx val="1279447167"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16035,7 +16035,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C0FF-46DA-B97C-8783257335EF}"/>
+              <c16:uniqueId val="{00000001-6C58-4A34-8DBE-3CF026C0029A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16047,11 +16047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428404991"/>
-        <c:axId val="428420799"/>
+        <c:axId val="614543519"/>
+        <c:axId val="689817247"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428404991"/>
+        <c:axId val="614543519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16079,12 +16079,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428420799"/>
+        <c:crossAx val="689817247"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428420799"/>
+        <c:axId val="689817247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16113,7 +16113,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428404991"/>
+        <c:crossAx val="614543519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16414,7 +16414,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-325F-4727-97EF-CAEF16CD8421}"/>
+              <c16:uniqueId val="{00000001-CB35-4FEA-9188-F765F3156175}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16426,11 +16426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121090352"/>
-        <c:axId val="121089104"/>
+        <c:axId val="1329268239"/>
+        <c:axId val="1329269903"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121090352"/>
+        <c:axId val="1329268239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16458,12 +16458,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121089104"/>
+        <c:crossAx val="1329269903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121089104"/>
+        <c:axId val="1329269903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16492,7 +16492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121090352"/>
+        <c:crossAx val="1329268239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16793,7 +16793,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0299-4ED2-9CAD-15DF7C347457}"/>
+              <c16:uniqueId val="{00000001-E0D2-4B23-8208-53E27BEDE161}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16805,11 +16805,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="3724720"/>
-        <c:axId val="3720976"/>
+        <c:axId val="456771216"/>
+        <c:axId val="456771632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3724720"/>
+        <c:axId val="456771216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16837,12 +16837,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="3720976"/>
+        <c:crossAx val="456771632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3720976"/>
+        <c:axId val="456771632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16871,7 +16871,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="3724720"/>
+        <c:crossAx val="456771216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17172,7 +17172,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4CDE-463F-9F4D-3F08D51D1F05}"/>
+              <c16:uniqueId val="{00000001-01C6-4A47-ADD9-C2ED6ED3E087}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17184,11 +17184,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073355648"/>
-        <c:axId val="2073361472"/>
+        <c:axId val="460340240"/>
+        <c:axId val="460337328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073355648"/>
+        <c:axId val="460340240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17216,12 +17216,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073361472"/>
+        <c:crossAx val="460337328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073361472"/>
+        <c:axId val="460337328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17250,7 +17250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073355648"/>
+        <c:crossAx val="460340240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17551,7 +17551,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B2D-42B6-9A40-7679E62060E2}"/>
+              <c16:uniqueId val="{00000001-04D8-4A4A-AA63-CE65A56D1FAF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17563,11 +17563,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2069173680"/>
-        <c:axId val="2069181584"/>
+        <c:axId val="529433680"/>
+        <c:axId val="530275392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2069173680"/>
+        <c:axId val="529433680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17595,12 +17595,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069181584"/>
+        <c:crossAx val="530275392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2069181584"/>
+        <c:axId val="530275392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17629,7 +17629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069173680"/>
+        <c:crossAx val="529433680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17930,7 +17930,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1C09-48E8-A663-9418826DCA81}"/>
+              <c16:uniqueId val="{00000001-B00A-432D-B0D8-4F3CE4F4EF29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17942,11 +17942,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1807762736"/>
-        <c:axId val="1807764816"/>
+        <c:axId val="1278893999"/>
+        <c:axId val="1278892751"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1807762736"/>
+        <c:axId val="1278893999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17974,12 +17974,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1807764816"/>
+        <c:crossAx val="1278892751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1807764816"/>
+        <c:axId val="1278892751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18008,7 +18008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1807762736"/>
+        <c:crossAx val="1278893999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18309,7 +18309,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BA31-473E-A2E6-F71905209716}"/>
+              <c16:uniqueId val="{00000001-4358-477E-9F59-10D7BC28D685}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18321,11 +18321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2116631503"/>
-        <c:axId val="2116631087"/>
+        <c:axId val="1232375087"/>
+        <c:axId val="1232374671"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2116631503"/>
+        <c:axId val="1232375087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18353,12 +18353,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116631087"/>
+        <c:crossAx val="1232374671"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116631087"/>
+        <c:axId val="1232374671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18387,7 +18387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116631503"/>
+        <c:crossAx val="1232375087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18435,7 +18435,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F27A73-8856-161E-DB7C-48EB7B66E861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29944E41-74D5-651C-C870-40B779C914C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18476,7 +18476,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EA7584-E426-FE44-3D31-86B410CB4B83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650892AF-B030-13B0-0C44-AD6BBBA0C40B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18517,7 +18517,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9594B5BC-D475-34E0-2AA0-EE8635EF20B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8730FC89-7FC4-64F6-32B2-F8C5BAFCE64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18558,7 +18558,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD356BC-11B1-D5E4-C2B8-0D56E8D3D1BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBACAD6-7FBF-DA78-8687-102A955134D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18599,7 +18599,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93F3143-8F90-67DC-16FF-2CE1AB7F9CBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C68284-08E5-D9FC-479F-24DA2C0B3D1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18640,7 +18640,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4C153C-C116-0B88-5F69-7B1CBA7ECBD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892AE922-304F-06C0-554C-E624C99DB821}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18681,7 +18681,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7CF6F98-4D4A-BFC0-8CB3-FB7DF6F2C9CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8223F7B7-4DB5-82D3-9CCC-E5CD6ED29D81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18722,7 +18722,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670BCC8B-9033-C8BA-AC2F-8BD66D2C414A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBE2191-CA76-7C33-4E01-2649A1806B2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18763,7 +18763,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED85079-37DC-1BC1-CA42-81A9374F4C3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84089516-CFE0-3475-D86C-1AB2A5040DDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18804,7 +18804,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB067F4E-6359-6F35-A539-B6F2D0CD4443}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621AB446-062B-F466-95F6-6A0822693AF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18845,7 +18845,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F03D619-AA75-5795-BAB1-EB174232B239}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE1A923-7356-9286-BF79-A29E3D9DA753}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18886,7 +18886,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394F025F-EC3E-83DB-E481-24062ADA8EC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79DC85D-119C-217E-58AA-F56D31DDE688}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18927,7 +18927,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587076DD-C3A7-EE23-0160-EDB6911EAF0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE90963-4F62-8490-19CD-0EC5F79FB71D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18968,7 +18968,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E80845-4F5E-97B2-60A1-4A374CB8A9C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DEF2CE-E52C-AE87-CAFA-661118F69DAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19009,7 +19009,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121F2185-E539-67CD-0B5F-98CA3C77B161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5895AE-C6CC-742C-E2B0-EC3496D31FB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19050,7 +19050,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B0A2F71-E170-B96A-A932-654D97D556BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C384833-56D1-0115-69BE-2680307375B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19091,7 +19091,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB78B1A-E9D9-6633-F266-F09C5EDBC7B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C21FA729-365E-4D7C-9579-8973B3AD7597}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19132,7 +19132,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46D0532-2D45-5125-6A4A-0568DF6944AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0693C37-EEED-B6C8-FB75-303C51430373}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19173,7 +19173,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5892758-08E1-B2CE-A4C2-28C132386AE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C026FC2-273A-3093-7B38-3331D6D6DD40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19214,7 +19214,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8444F33E-E5B0-7E61-E051-AE2D3C3D2D92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3030FC13-CCB3-64AC-241F-7218616D3C6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19255,7 +19255,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE198660-B3F4-F7B4-BEDD-3CE4B01D6009}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAAF9EBB-250F-85DE-58DC-13BBDD34E877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19296,7 +19296,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA12DFC7-FF64-9FC7-0625-8920E9F15979}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C091EF04-966B-9045-DAB7-D4108A0CB60A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19337,7 +19337,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4548BE90-C4BD-BF91-B71F-2A12CBBF959E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DCA811-DD32-B22C-14B5-D33960963EBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19378,7 +19378,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA6E21E9-F17A-BF68-4FAD-A616874129CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD9B9B9-C6F9-251D-7BBF-A8F7E2837090}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19419,7 +19419,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5798E360-6828-542E-82E1-984C7CE87816}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00ED8DB-3278-0CFE-AA66-46C7E932F56E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19460,7 +19460,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46825ECF-C474-9DFA-2740-CE5E373B2885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6273DB58-E6AF-1381-1DD9-668CBEF674D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19501,7 +19501,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F81E65-7A8A-6B64-88A2-1714D6C3FFE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346882F8-70E9-2FBA-78A1-748A6F08AE83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19542,7 +19542,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1BA045-E69D-DB9D-9D91-678DEC9DB545}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C32108-4661-9AD5-FF8E-325B70FCE4DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19583,7 +19583,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C82B293-EBC8-DE33-1D66-04B645C5531B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA554B0-FD64-F28C-FAC1-2C0B3B634234}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19624,7 +19624,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6DCA85-78E6-356E-0A93-8F44EB406A5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB6791B-2221-E2B4-66A0-AD0F33AF43B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19665,7 +19665,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3CDACA-8F69-3306-74E6-B23EF8B8A1A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1CD12E4-9FC7-76E2-E7E9-895C14773704}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19706,7 +19706,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D1E54B-553B-0BE7-C619-CA34BB30752C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4878373C-FEA5-C792-D395-A546F29FF313}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19747,7 +19747,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C870B4DE-2AB5-41ED-5917-4E7630EB9B2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA78E19-7FC1-0699-AB4F-7BD20482D781}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19788,7 +19788,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C2202F-9609-4229-1936-E94F6D381C78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB77C41-521F-8226-D9F4-C679501012EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19829,7 +19829,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDAA471B-FDBA-7947-355E-958FF84EA089}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB81F43-45D7-D759-D17E-4AF8E255C626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19870,7 +19870,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E75DA3-4CC8-D503-2BAD-2C288760B289}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A964E4-374B-822B-4732-83D7343EE26B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19911,7 +19911,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CF1446-516E-90A3-DDCF-60A26C59AB73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AD1B3A-C8A0-8053-9F73-5CF89D7AD180}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19952,7 +19952,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7743960C-31A9-E1F7-C861-50689EA36D16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7DCF1F-A0F7-7DB5-7C8A-21F30A66B789}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19993,7 +19993,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEF3D2B-460E-02ED-B8BB-9D09BE35A125}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78283177-C450-7722-0A7F-A5B16327E702}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20034,7 +20034,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3973E8-A553-5F19-2508-58B468C9516D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8885A842-2AD7-17E5-6A7C-D39D8434889F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20075,7 +20075,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B98E217-078A-B9CE-C584-05A41F6174AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA43EACE-7568-9B9F-E84D-533C6ED4C9D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20116,7 +20116,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5286530E-85F6-178A-6337-A5A85468F908}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB2E6CFF-68EF-BA75-AF5A-998C983EE006}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20157,7 +20157,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBA9E87-F953-E0C8-6447-5B88A61DEBF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C377156A-6E49-54C1-005D-64E239DB4A7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20198,7 +20198,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA44481-434E-C7F1-E263-7A8281224EF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74561E54-5A00-0E4B-FAE3-C48673C886D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20239,7 +20239,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCBCBCEA-F818-531B-F29C-AA62BC0AC2E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9368FBD8-A76F-1BF8-4DBC-0C6960C7883B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20280,7 +20280,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C43B4E2-50CA-C391-9845-BA0E1B742C22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB29F60E-62A3-5FD6-3313-B75056AA3ABC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20321,7 +20321,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72293A9D-8D49-669B-5599-A2106988735C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF44E152-EF4F-7875-3D17-DAF87371F6AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20362,7 +20362,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89FBC40E-6A4F-D82D-931D-39461589F211}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F176D9B-58BE-C97E-7F5E-56BB075A2C74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
